--- a/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,27 +601,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-29,27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,53; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,53; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -762,27 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-10,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,42</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,92; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,42%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,92; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 15,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; 14,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,48; 9,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 12,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 8,63</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 19,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 16,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 10,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 15,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,21; 9,68</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-6,96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-5,3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,13; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,14; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; -1,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,46; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,34%</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,13; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,14; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; -1,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,46; 0,0</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,76; 10,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,15; 20,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 20,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 19,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 10,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 15,78</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,12; 11,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 26,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 25,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 26,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; 12,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 19,37</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 2,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 5,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 8,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 6,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 4,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 4,89</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 3,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 5,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 9,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 7,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 5,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-29,27</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-7,74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,77</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-12,55; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-39,28; 0,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 0,0</t>
+          <t>-6,29; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-7,74%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-12,55; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-39,28; 0,0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 0,0</t>
+          <t>-6,29; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,0; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 15,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 0,0</t>
+          <t>-15,93; 14,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,48; 9,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 12,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 0,0</t>
+          <t>-9,93; 8,63</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-0,67%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 19,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 0,0</t>
+          <t>-16,43; 16,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 10,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 15,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 0,0</t>
+          <t>-10,21; 9,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,34</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 15,69</t>
+          <t>-21,13; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 14,22</t>
+          <t>-27,14; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,84</t>
+          <t>-11,63; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 9,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 12,91</t>
+          <t>-12,44; -1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 8,63</t>
+          <t>-11,46; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>-5,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-2,34%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 19,42</t>
+          <t>-21,13; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 16,58</t>
+          <t>-27,14; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,22</t>
+          <t>-11,63; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 15,2</t>
+          <t>-12,44; -1,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 9,68</t>
+          <t>-11,46; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>5,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 0,0</t>
+          <t>-24,76; 10,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 0,0</t>
+          <t>-8,15; 20,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 0,0</t>
+          <t>-0,46; 20,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 19,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,39</t>
+          <t>-8,77; 10,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,0</t>
+          <t>-1,99; 15,78</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 0,0</t>
+          <t>-26,12; 11,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 0,0</t>
+          <t>-8,17; 26,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 0,0</t>
+          <t>-0,45; 25,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 26,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,39</t>
+          <t>-9,06; 12,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,0</t>
+          <t>-1,88; 19,37</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 10,17</t>
+          <t>-10,62; 2,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 20,89</t>
+          <t>-9,14; 5,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 20,08</t>
+          <t>-0,19; 8,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 19,78</t>
+          <t>-2,26; 6,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 10,93</t>
+          <t>-3,28; 4,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 15,78</t>
+          <t>-3,8; 4,89</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 11,65</t>
+          <t>-10,93; 3,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 26,05</t>
+          <t>-9,34; 5,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 25,55</t>
+          <t>-0,18; 9,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 26,9</t>
+          <t>-2,31; 7,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 12,93</t>
+          <t>-3,35; 4,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 19,37</t>
+          <t>-3,89; 5,26</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 2,91</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; 5,42</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 8,42</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 6,75</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 4,25</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 4,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-4,03%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 3,04</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-9,34; 5,86</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 9,33</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 7,42</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 4,62</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 5,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Habitat-trans_camb.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 0,0</t>
+          <t>-10,51; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 0,0</t>
+          <t>-33,94; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,0</t>
+          <t>-6,02; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 0,0</t>
+          <t>-15,97; 0,0</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 0,0</t>
+          <t>-10,51; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 0,0</t>
+          <t>-33,94; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,0</t>
+          <t>-6,02; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 0,0</t>
+          <t>-15,97; 0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 15,69</t>
+          <t>-7,01; 15,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 14,22</t>
+          <t>-17,46; 12,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,84</t>
+          <t>0,0; 18,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 9,57</t>
+          <t>-13,69; 9,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 12,91</t>
+          <t>-1,01; 12,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 8,63</t>
+          <t>-10,46; 8,49</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 19,42</t>
+          <t>-7,25; 19,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 16,58</t>
+          <t>-17,71; 14,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,22</t>
+          <t>0,0; 23,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 10,83</t>
+          <t>-13,88; 11,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 15,2</t>
+          <t>-1,04; 14,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 9,68</t>
+          <t>-10,93; 9,41</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 0,0</t>
+          <t>-24,38; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 0,0</t>
+          <t>-30,49; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 0,0</t>
+          <t>-13,87; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,39</t>
+          <t>-12,66; -1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,0</t>
+          <t>-12,12; 0,0</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 0,0</t>
+          <t>-24,38; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 0,0</t>
+          <t>-30,49; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 0,0</t>
+          <t>-13,87; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,39</t>
+          <t>-12,66; -1,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,0</t>
+          <t>-12,12; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 10,17</t>
+          <t>-27,2; 10,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 20,89</t>
+          <t>-8,09; 20,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 20,08</t>
+          <t>-1,73; 19,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 19,78</t>
+          <t>-2,67; 17,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 10,93</t>
+          <t>-7,83; 10,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 15,78</t>
+          <t>-1,65; 15,93</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 11,65</t>
+          <t>-27,92; 12,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 26,05</t>
+          <t>-8,09; 25,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 25,55</t>
+          <t>-1,59; 24,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 26,9</t>
+          <t>-2,51; 24,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 12,93</t>
+          <t>-8,19; 12,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 19,37</t>
+          <t>-1,61; 19,49</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,91</t>
+          <t>-10,89; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 5,42</t>
+          <t>-8,92; 5,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,42</t>
+          <t>-0,13; 7,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>-2,55; 6,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,25</t>
+          <t>-3,23; 4,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,89</t>
+          <t>-3,51; 4,19</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 3,04</t>
+          <t>-11,19; 3,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,86</t>
+          <t>-9,12; 5,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,33</t>
+          <t>-0,08; 8,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 7,42</t>
+          <t>-2,59; 7,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,62</t>
+          <t>-3,35; 4,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,26</t>
+          <t>-3,62; 4,52</t>
         </is>
       </c>
     </row>
